--- a/Jogos_do_Dia/2023-09-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -625,13 +625,13 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H2">
         <v>3.25</v>
       </c>
       <c r="I2">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -646,10 +646,10 @@
         <v>2.65</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O2">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2">
         <v>1.52</v>
@@ -688,13 +688,13 @@
         <v>2.72</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE2">
         <v>1.25</v>

--- a/Jogos_do_Dia/2023-09-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -625,13 +625,13 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="J2">
         <v>1.1</v>
